--- a/实验效果.xlsx
+++ b/实验效果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Python\MSPLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D12CC-1ECB-463C-83DF-7FE20476A6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB38C9-66E2-4254-8FFD-5CC34BA6DEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min-lr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -279,36 +283,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -333,7 +307,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -351,13 +325,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -366,41 +353,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -420,70 +392,70 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -766,234 +738,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.625" style="1"/>
+    <col min="1" max="5" width="8.58203125" style="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>32</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>96</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="16">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I3" s="2">
         <v>96</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="K3" s="4">
-        <f>SUM(J3:J9)/COUNT(J3:J9)</f>
+      <c r="L3" s="20">
+        <f>SUM(K3:K9)/COUNT(K3:K9)</f>
         <v>0.79514285714285715</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5">
         <v>91</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="6">
         <v>0.77900000000000003</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="6">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6">
+      <c r="L4" s="21"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5">
         <v>96</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="6">
         <v>0.78100000000000003</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="6">
         <v>0.78700000000000003</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6">
+      <c r="L5" s="21"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5">
         <v>86</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="6">
         <v>0.79300000000000004</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="6">
         <v>0.81699999999999995</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6">
+      <c r="L6" s="21"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5">
         <v>95</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="6">
         <v>0.79200000000000004</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="6">
         <v>0.79300000000000004</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6">
+      <c r="L7" s="21"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5">
         <v>93</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="6">
         <v>0.77</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="6">
         <v>0.79200000000000004</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10">
+      <c r="L8" s="21"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8">
         <v>96</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="9">
         <v>0.76600000000000001</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="9">
         <v>0.78400000000000003</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="22"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1015,28 +1001,28 @@
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>78</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
         <v>80</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,201 +1045,345 @@
         <v>15</v>
       </c>
       <c r="H21" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I21" s="1">
         <v>116</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H22" s="1">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
         <v>128</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.76700000000000002</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H23" s="1">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
         <v>128</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="1">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I24" s="1">
         <v>118</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>119</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>116</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>128</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <v>126</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B37" s="1">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D37" s="1">
         <v>32</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E37" s="1">
         <v>128</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H37" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I37" s="1">
         <v>125</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J37" s="1">
         <v>0.78</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K37" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H31" s="1">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I38" s="1">
         <v>125</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J38" s="1">
         <v>0.79</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K38" s="1">
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="1">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I39" s="1">
         <v>126</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J39" s="1">
         <v>0.78400000000000003</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K39" s="1">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I40" s="1">
+        <v>116</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="1">
+        <v>123</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I42" s="1">
+        <v>117</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.755</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I43" s="1">
+        <v>126</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B47" s="1">
         <v>11</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D47" s="1">
         <v>32</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E47" s="1">
         <v>128</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H47" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I47" s="1">
         <v>128</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J47" s="1">
         <v>0.78700000000000003</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K47" s="1">
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H41" s="1">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I48" s="1">
         <v>122</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J48" s="1">
         <v>0.79100000000000004</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K48" s="1">
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I49" s="1">
+        <v>127</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I50" s="1">
+        <v>126</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I51" s="1">
+        <v>123</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I52" s="1">
+        <v>127</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B56" s="1">
         <v>11</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D56" s="1">
         <v>32</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E56" s="1">
         <v>128</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="H56" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B73" s="1">
         <v>6</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D73" s="1">
         <v>32</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E73" s="1">
         <v>96</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I73" s="1">
         <v>96</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J73" s="1">
         <v>0.79800000000000004</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K73" s="1">
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,64 +1391,67 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1">
+        <v>32</v>
+      </c>
+      <c r="E74" s="1">
+        <v>128</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I74" s="1">
+        <v>58</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I75" s="1">
+        <v>26</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I76" s="1">
+        <v>88</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="1">
-        <v>9</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1">
-        <v>32</v>
-      </c>
-      <c r="E80" s="1">
-        <v>128</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="1">
-        <v>115</v>
-      </c>
-      <c r="I80" s="1">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="J80" s="1">
-        <v>0.79300000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H81" s="1">
-        <v>123</v>
-      </c>
-      <c r="I81" s="1">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H82" s="1">
-        <v>123</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -1326,68 +1459,339 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="1">
+        <v>32</v>
+      </c>
+      <c r="E87" s="1">
+        <v>128</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I87" s="1">
+        <v>115</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I88" s="1">
+        <v>123</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I89" s="1">
+        <v>123</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I90" s="1">
+        <v>108</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I91" s="1">
+        <v>127</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I92" s="1">
+        <v>126</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I93" s="1">
+        <v>126</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="D102" s="1">
+        <v>32</v>
+      </c>
+      <c r="E102" s="1">
+        <v>128</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I102" s="1">
+        <v>95</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I103" s="1">
+        <v>104</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I104" s="1">
+        <v>88</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I105" s="1">
+        <v>114</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I106" s="1">
+        <v>110</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I107" s="1">
+        <v>105</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I108" s="1">
+        <v>80</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I109" s="1">
+        <v>88</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I110" s="1">
+        <v>78</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B113" s="1">
         <v>11</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D113" s="1">
         <v>32</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E113" s="1">
         <v>128</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H113" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I113" s="1">
         <v>104</v>
       </c>
-      <c r="I98" s="1">
+      <c r="J113" s="1">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J98" s="1">
+      <c r="K113" s="1">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H99" s="1">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I114" s="1">
         <v>110</v>
       </c>
-      <c r="I99" s="1">
+      <c r="J114" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J99" s="1">
+      <c r="K114" s="1">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H100" s="1">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I115" s="1">
         <v>98</v>
       </c>
-      <c r="I100" s="1">
+      <c r="J115" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J100" s="1">
+      <c r="K115" s="1">
         <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I116" s="1">
+        <v>92</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I117" s="1">
+        <v>102</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I118" s="1">
+        <v>116</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I119" s="1">
+        <v>101</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I120" s="1">
+        <v>126</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0.79100000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验效果.xlsx
+++ b/实验效果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Python\MSPLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB38C9-66E2-4254-8FFD-5CC34BA6DEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F19BB-9B5B-4282-858A-23287BBD453E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -194,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -337,35 +345,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -381,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,19 +414,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,14 +438,56 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,63 +769,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.58203125" style="1"/>
+    <col min="1" max="5" width="8.625" style="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -813,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -835,7 +866,7 @@
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="I3" s="2">
@@ -847,13 +878,13 @@
       <c r="K3" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <f>SUM(K3:K9)/COUNT(K3:K9)</f>
         <v>0.79514285714285715</v>
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -871,10 +902,10 @@
       <c r="K4" s="6">
         <v>0.80800000000000005</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -892,10 +923,10 @@
       <c r="K5" s="6">
         <v>0.78700000000000003</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -913,10 +944,10 @@
       <c r="K6" s="6">
         <v>0.81699999999999995</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -934,10 +965,10 @@
       <c r="K7" s="6">
         <v>0.79300000000000004</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -955,10 +986,10 @@
       <c r="K8" s="6">
         <v>0.79200000000000004</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -976,10 +1007,10 @@
       <c r="K9" s="9">
         <v>0.78400000000000003</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1042,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I11" s="1">
         <v>80</v>
       </c>
@@ -1022,7 +1053,7 @@
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1088,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I22" s="1">
         <v>128</v>
       </c>
@@ -1068,7 +1099,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I23" s="1">
         <v>128</v>
       </c>
@@ -1079,7 +1110,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I24" s="1">
         <v>118</v>
       </c>
@@ -1090,7 +1121,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1">
         <v>119</v>
       </c>
@@ -1101,7 +1132,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I26" s="1">
         <v>116</v>
       </c>
@@ -1112,7 +1143,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I27" s="1">
         <v>128</v>
       </c>
@@ -1123,7 +1154,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <v>126</v>
       </c>
@@ -1134,7 +1165,40 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <v>123</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <v>128</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <v>125</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,7 +1233,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I38" s="1">
         <v>125</v>
       </c>
@@ -1180,7 +1244,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I39" s="1">
         <v>126</v>
       </c>
@@ -1191,7 +1255,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I40" s="1">
         <v>116</v>
       </c>
@@ -1202,7 +1266,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I41" s="1">
         <v>123</v>
       </c>
@@ -1213,7 +1277,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I42" s="1">
         <v>117</v>
       </c>
@@ -1224,7 +1288,7 @@
         <v>0.80300000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I43" s="1">
         <v>126</v>
       </c>
@@ -1235,563 +1299,1026 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="1">
+        <v>119</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="1">
+        <v>105</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="1">
+        <v>123</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B52" s="1">
         <v>11</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D52" s="1">
         <v>32</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E52" s="1">
         <v>128</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H52" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I52" s="1">
         <v>128</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J52" s="1">
         <v>0.78700000000000003</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K52" s="1">
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I48" s="1">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="1">
         <v>122</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J53" s="1">
         <v>0.79100000000000004</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K53" s="1">
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I49" s="1">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="1">
         <v>127</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J54" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K54" s="1">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I50" s="1">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="1">
         <v>126</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J55" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K55" s="1">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I51" s="1">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="1">
         <v>123</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J56" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K56" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I52" s="1">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="1">
         <v>127</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J57" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K57" s="1">
         <v>0.749</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="1">
+        <v>119</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="1">
+        <v>127</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="1">
+        <v>127</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B65" s="1">
         <v>11</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D65" s="1">
         <v>32</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E65" s="1">
         <v>128</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H65" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B78" s="1">
         <v>6</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D78" s="1">
         <v>32</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E78" s="1">
         <v>96</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I78" s="1">
         <v>96</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J78" s="1">
         <v>0.79800000000000004</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K78" s="1">
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B79" s="1">
         <v>6</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D79" s="1">
         <v>32</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E79" s="1">
         <v>128</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H79" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I79" s="1">
         <v>58</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J79" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K79" s="1">
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I75" s="1">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I80" s="1">
         <v>26</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J80" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K80" s="1">
         <v>0.76</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I76" s="1">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I81" s="1">
         <v>88</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J81" s="1">
         <v>0.75600000000000001</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K81" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B86" s="1">
         <v>6</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B92" s="1">
         <v>9</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D92" s="1">
         <v>32</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E92" s="1">
         <v>128</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H92" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I92" s="1">
         <v>115</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J92" s="1">
         <v>0.80300000000000005</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0.79300000000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I88" s="1">
-        <v>123</v>
-      </c>
-      <c r="J88" s="1">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="K88" s="1">
-        <v>0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I89" s="1">
-        <v>123</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="K89" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I90" s="1">
-        <v>108</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I91" s="1">
-        <v>127</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="K91" s="1">
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I92" s="1">
-        <v>126</v>
-      </c>
-      <c r="J92" s="1">
-        <v>0.80500000000000005</v>
       </c>
       <c r="K92" s="1">
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I93" s="1">
+        <v>123</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I94" s="1">
+        <v>123</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I95" s="1">
+        <v>108</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I96" s="1">
+        <v>127</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I97" s="1">
         <v>126</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J97" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I98" s="1">
+        <v>126</v>
+      </c>
+      <c r="J98" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K98" s="1">
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I99" s="1">
+        <v>123</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I100" s="1">
+        <v>106</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I101" s="1">
+        <v>128</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I102" s="1">
+        <v>93</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B107" s="29">
         <v>9</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C107" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D107" s="29">
         <v>32</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E107" s="29">
         <v>128</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F107" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G107" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H107" s="30">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I107" s="28">
         <v>95</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J107" s="29">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K107" s="29">
         <v>0.79700000000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I103" s="1">
+      <c r="L107" s="31">
+        <f>SUM(K107:K126)/COUNT(K107:K126)</f>
+        <v>0.79739999999999989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="32"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="32">
         <v>104</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J108" s="33">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K108" s="33">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I104" s="1">
+      <c r="L108" s="34"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="32"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="32">
         <v>88</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J109" s="33">
         <v>0.75600000000000001</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K109" s="33">
         <v>0.81599999999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I105" s="1">
+      <c r="L109" s="34"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="32"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="32">
         <v>114</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J110" s="33">
         <v>0.80500000000000005</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K110" s="33">
         <v>0.82699999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I106" s="1">
+      <c r="L110" s="34"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="32"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="32">
         <v>110</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J111" s="33">
         <v>0.81799999999999995</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K111" s="33">
         <v>0.79900000000000004</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I107" s="1">
+      <c r="L111" s="34"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="32"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="32">
         <v>105</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J112" s="33">
         <v>0.82699999999999996</v>
       </c>
-      <c r="K107" s="1">
+      <c r="K112" s="33">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I108" s="1">
+      <c r="L112" s="34"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="32"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="32">
         <v>80</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J113" s="33">
         <v>0.83</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K113" s="33">
         <v>0.83199999999999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I109" s="1">
+      <c r="L113" s="34"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="32"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="32">
         <v>88</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J114" s="33">
         <v>0.79400000000000004</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K114" s="33">
         <v>0.78600000000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I110" s="1">
+      <c r="L114" s="34"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="32"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="32">
         <v>78</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J115" s="33">
         <v>0.79</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K115" s="33">
         <v>0.78300000000000003</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="L115" s="34"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="32"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="32">
+        <v>116</v>
+      </c>
+      <c r="J116" s="33">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K116" s="33">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L116" s="34"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="32"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="32">
+        <v>88</v>
+      </c>
+      <c r="J117" s="33">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="K117" s="33">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="L117" s="34"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="32"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="32">
+        <v>94</v>
+      </c>
+      <c r="J118" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="K118" s="33">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="L118" s="34"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="32"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="32">
+        <v>98</v>
+      </c>
+      <c r="J119" s="33">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K119" s="33">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="L119" s="34"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="32"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="32">
+        <v>86</v>
+      </c>
+      <c r="J120" s="33">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="K120" s="33">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L120" s="34"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="32"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="32">
+        <v>103</v>
+      </c>
+      <c r="J121" s="33">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="K121" s="33">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L121" s="34"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="32"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="32">
+        <v>103</v>
+      </c>
+      <c r="J122" s="33">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K122" s="33">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L122" s="34"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="32"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="32">
+        <v>110</v>
+      </c>
+      <c r="J123" s="33">
+        <v>0.83</v>
+      </c>
+      <c r="K123" s="33">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L123" s="34"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="32"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="32">
+        <v>102</v>
+      </c>
+      <c r="J124" s="33">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="K124" s="33">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L124" s="34"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="32"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="32">
+        <v>125</v>
+      </c>
+      <c r="J125" s="33">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="K125" s="33">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L125" s="34"/>
+    </row>
+    <row r="126" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="35"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="35">
+        <v>125</v>
+      </c>
+      <c r="J126" s="36">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K126" s="36">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L126" s="37"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B127" s="1">
         <v>11</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D127" s="1">
         <v>32</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E127" s="1">
         <v>128</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H127" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I127" s="1">
         <v>104</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J127" s="1">
         <v>0.81699999999999995</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K127" s="1">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I114" s="1">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I128" s="1">
         <v>110</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J128" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="K114" s="1">
+      <c r="K128" s="1">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I115" s="1">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I129" s="1">
         <v>98</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J129" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="K115" s="1">
+      <c r="K129" s="1">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I116" s="1">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I130" s="1">
         <v>92</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J130" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="K116" s="1">
+      <c r="K130" s="1">
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I117" s="1">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I131" s="1">
         <v>102</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J131" s="1">
         <v>0.83099999999999996</v>
       </c>
-      <c r="K117" s="1">
+      <c r="K131" s="1">
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I118" s="1">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I132" s="1">
         <v>116</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J132" s="1">
         <v>0.83499999999999996</v>
       </c>
-      <c r="K118" s="1">
+      <c r="K132" s="1">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I119" s="1">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I133" s="1">
         <v>101</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J133" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K119" s="1">
+      <c r="K133" s="1">
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I120" s="1">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I134" s="1">
         <v>126</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J134" s="1">
         <v>0.80900000000000005</v>
       </c>
-      <c r="K120" s="1">
+      <c r="K134" s="1">
         <v>0.79100000000000004</v>
       </c>
     </row>
+    <row r="135" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I135" s="1">
+        <v>113</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I136" s="1">
+        <v>115</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I137" s="1">
+        <v>95</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I138" s="1">
+        <v>116</v>
+      </c>
+      <c r="J138" s="21">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="139" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I139" s="1">
+        <v>116</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="L3:L9"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L107:L126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验效果.xlsx
+++ b/实验效果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Python\MSPLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F19BB-9B5B-4282-858A-23287BBD453E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8DB76F-1D87-4357-9327-EFF762513368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,12 +126,16 @@
     <t>min-lr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>debertaAES - RealCosloss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +167,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -372,11 +391,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,6 +479,66 @@
     <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,9 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,43 +563,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S198" sqref="S198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,52 +872,52 @@
     <col min="1" max="5" width="8.625" style="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -878,7 +970,7 @@
       <c r="K3" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="38">
         <f>SUM(K3:K9)/COUNT(K3:K9)</f>
         <v>0.79514285714285715</v>
       </c>
@@ -902,7 +994,7 @@
       <c r="K4" s="6">
         <v>0.80800000000000005</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -923,7 +1015,7 @@
       <c r="K5" s="6">
         <v>0.78700000000000003</v>
       </c>
-      <c r="L5" s="19"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -944,7 +1036,7 @@
       <c r="K6" s="6">
         <v>0.81699999999999995</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -965,7 +1057,7 @@
       <c r="K7" s="6">
         <v>0.79300000000000004</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -986,7 +1078,7 @@
       <c r="K8" s="6">
         <v>0.79200000000000004</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1007,570 +1099,1378 @@
       <c r="K9" s="9">
         <v>0.78400000000000003</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="20">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="20">
         <v>32</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="20">
         <v>80</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10" s="20"/>
+      <c r="I10" s="19">
         <v>78</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="20">
         <v>0.81399999999999995</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="20">
         <v>0.78800000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I11" s="1">
+      <c r="L10" s="20"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24">
         <v>80</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="25">
         <v>0.81499999999999995</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="25">
         <v>0.79100000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="L11" s="25"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B12" s="20">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D12" s="20">
         <v>32</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E12" s="20">
         <v>128</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H12" s="20">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I12" s="19">
         <v>116</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J12" s="20">
         <v>0.77600000000000002</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K12" s="20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I22" s="1">
+      <c r="L12" s="20"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22">
         <v>128</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J13" s="23">
         <v>0.76700000000000002</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K13" s="23">
         <v>0.78200000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I23" s="1">
+      <c r="L13" s="23"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22">
         <v>128</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J14" s="23">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K14" s="23">
         <v>0.81399999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I24" s="1">
+      <c r="L14" s="23"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22">
         <v>118</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J15" s="23">
         <v>0.81399999999999995</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K15" s="23">
         <v>0.81100000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I25" s="1">
+      <c r="L15" s="23"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22">
         <v>119</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J16" s="23">
         <v>0.79400000000000004</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K16" s="23">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I26" s="1">
+      <c r="L16" s="23"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22">
         <v>116</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J17" s="23">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K17" s="23">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I27" s="1">
+      <c r="L17" s="23"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22">
         <v>128</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J18" s="23">
         <v>0.81</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K18" s="23">
         <v>0.77100000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I28" s="1">
+      <c r="L18" s="23"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="22">
         <v>126</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J19" s="23">
         <v>0.82199999999999995</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K19" s="23">
         <v>0.80700000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I29" s="1">
+      <c r="L19" s="23"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22">
         <v>123</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J20" s="23">
         <v>0.78500000000000003</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K20" s="23">
         <v>0.77300000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I30" s="1">
+      <c r="L20" s="23"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22">
         <v>128</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J21" s="23">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K21" s="23">
         <v>0.80700000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I31" s="1">
+      <c r="L21" s="23"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22">
         <v>125</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J22" s="23">
         <v>0.77</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K22" s="23">
         <v>0.78100000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="L22" s="23"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22">
+        <v>123</v>
+      </c>
+      <c r="J23" s="23">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="K23" s="23">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22">
+        <v>128</v>
+      </c>
+      <c r="J24" s="23">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="K24" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22">
+        <v>120</v>
+      </c>
+      <c r="J25" s="23">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="K25" s="23">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22">
+        <v>127</v>
+      </c>
+      <c r="J26" s="23">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K26" s="23">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22">
+        <v>102</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="K27" s="23">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22">
+        <v>123</v>
+      </c>
+      <c r="J28" s="23">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="K28" s="23">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22">
+        <v>96</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K29" s="23">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="28"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B32" s="20">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D32" s="20">
         <v>32</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E32" s="20">
         <v>128</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F32" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H32" s="20">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I32" s="19">
         <v>125</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J32" s="20">
         <v>0.78</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K32" s="20">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I38" s="1">
+      <c r="L32" s="20"/>
+      <c r="M32" s="26"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="22">
         <v>125</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J33" s="23">
         <v>0.79</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K33" s="23">
         <v>0.83299999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I39" s="1">
+      <c r="L33" s="23"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22">
         <v>126</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J34" s="23">
         <v>0.78400000000000003</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K34" s="23">
         <v>0.85199999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I40" s="1">
+      <c r="L34" s="23"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="22">
         <v>116</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J35" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K35" s="23">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I41" s="1">
+      <c r="L35" s="23"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22">
         <v>123</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J36" s="23">
         <v>0.75800000000000001</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K36" s="23">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I42" s="1">
+      <c r="L36" s="23"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22">
         <v>117</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J37" s="23">
         <v>0.755</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K37" s="23">
         <v>0.80300000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I43" s="1">
+      <c r="L37" s="23"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="22">
         <v>126</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J38" s="23">
         <v>0.748</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K38" s="23">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I44" s="1">
+      <c r="L38" s="23"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22">
         <v>119</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J39" s="23">
         <v>0.748</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K39" s="23">
         <v>0.80300000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I45" s="1">
+      <c r="L39" s="23"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="22">
         <v>105</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J40" s="23">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K40" s="23">
         <v>0.75800000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I46" s="1">
+      <c r="L40" s="23"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="22">
         <v>123</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J41" s="23">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K41" s="23">
         <v>0.76600000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="L41" s="23"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="22">
+        <v>124</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="K42" s="23">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22">
+        <v>112</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="K43" s="23">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="22">
+        <v>112</v>
+      </c>
+      <c r="J44" s="23">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="K44" s="23">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="22">
+        <v>115</v>
+      </c>
+      <c r="J45" s="23">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K45" s="23">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="L45" s="23"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22">
+        <v>122</v>
+      </c>
+      <c r="J46" s="23">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="K46" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22">
+        <v>128</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K47" s="23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="22">
+        <v>123</v>
+      </c>
+      <c r="J48" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K48" s="23">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22">
+        <v>122</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="K49" s="23">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="28"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="20">
         <v>11</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="20">
         <v>32</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="20">
         <v>128</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="26">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="19">
         <v>128</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="20">
         <v>0.78700000000000003</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="20">
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I53" s="1">
+      <c r="L52" s="20"/>
+      <c r="M52" s="26"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="22">
         <v>122</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="23">
         <v>0.79100000000000004</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="23">
         <v>0.76600000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I54" s="1">
+      <c r="L53" s="23"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="22">
         <v>127</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="23">
         <v>0.82199999999999995</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="23">
         <v>0.81399999999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I55" s="1">
+      <c r="L54" s="23"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="22">
         <v>126</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="23">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="23">
         <v>0.79900000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I56" s="1">
+      <c r="L55" s="23"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="22">
         <v>123</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="23">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="23">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I57" s="1">
+      <c r="L56" s="23"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="22">
         <v>127</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="23">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="23">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I58" s="1">
+      <c r="L57" s="23"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="22">
         <v>119</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="23">
         <v>0.83499999999999996</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="23">
         <v>0.82099999999999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I59" s="1">
+      <c r="L58" s="23"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="22">
         <v>127</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="23">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="23">
         <v>0.77900000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I60" s="1">
+      <c r="L59" s="23"/>
+      <c r="M59" s="27"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="22">
         <v>127</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="23">
         <v>0.77200000000000002</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="23">
         <v>0.79100000000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="L60" s="23"/>
+      <c r="M60" s="27"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="22">
+        <v>120</v>
+      </c>
+      <c r="J61" s="23">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="K61" s="23">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="L61" s="23"/>
+      <c r="M61" s="27"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="22">
+        <v>126</v>
+      </c>
+      <c r="J62" s="23">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="K62" s="23">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="L62" s="23"/>
+      <c r="M62" s="27"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="22">
+        <v>128</v>
+      </c>
+      <c r="J63" s="23">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K63" s="23">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="L63" s="23"/>
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="22">
+        <v>127</v>
+      </c>
+      <c r="J64" s="23">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K64" s="23">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="L64" s="23"/>
+      <c r="M64" s="27"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="22">
+        <v>126</v>
+      </c>
+      <c r="J65" s="23">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="K65" s="23">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L65" s="23"/>
+      <c r="M65" s="27"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="22">
+        <v>128</v>
+      </c>
+      <c r="J66" s="23">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K66" s="23">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L66" s="23"/>
+      <c r="M66" s="27"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="22">
+        <v>120</v>
+      </c>
+      <c r="J67" s="23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K67" s="23">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L67" s="23"/>
+      <c r="M67" s="27"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="22">
+        <v>111</v>
+      </c>
+      <c r="J68" s="23">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K68" s="23">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="L68" s="23"/>
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="27"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="28"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B72" s="1">
         <v>11</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D72" s="1">
         <v>32</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E72" s="1">
         <v>128</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H72" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B85" s="33">
         <v>6</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C85" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D85" s="33">
         <v>32</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E85" s="33">
         <v>96</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F85" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G85" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="1">
+      <c r="H85" s="33"/>
+      <c r="I85" s="32">
         <v>96</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J85" s="33">
         <v>0.79800000000000004</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K85" s="33">
         <v>0.77400000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="1">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="1">
-        <v>32</v>
-      </c>
-      <c r="E79" s="1">
-        <v>128</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I79" s="1">
-        <v>58</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="K79" s="1">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I80" s="1">
-        <v>26</v>
-      </c>
-      <c r="J80" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="K80" s="1">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I81" s="1">
-        <v>88</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="K81" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="33"/>
+      <c r="M85" s="34"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -1578,747 +2478,1523 @@
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1">
+        <v>32</v>
+      </c>
+      <c r="E86" s="1">
+        <v>128</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I86" s="1">
+        <v>58</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I87" s="1">
+        <v>26</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I88" s="1">
+        <v>88</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I89" s="1">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I90" s="1">
+        <v>21</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I91" s="1">
+        <v>29</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I92" s="1">
+        <v>27</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I93" s="1">
+        <v>96</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I94" s="1">
+        <v>98</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I95" s="1">
+        <v>72</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I96" s="1">
+        <v>126</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I97" s="1">
+        <v>68</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I98" s="1">
+        <v>86</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B110" s="20">
         <v>9</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C110" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D110" s="20">
         <v>32</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E110" s="20">
         <v>128</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F110" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G110" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H110" s="20">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I110" s="19">
         <v>115</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J110" s="20">
         <v>0.80300000000000005</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K110" s="20">
         <v>0.79300000000000004</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I93" s="1">
+      <c r="L110" s="20"/>
+      <c r="M110" s="26"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="22">
         <v>123</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J111" s="23">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K111" s="23">
         <v>0.80300000000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I94" s="1">
+      <c r="L111" s="23"/>
+      <c r="M111" s="27"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="22">
         <v>123</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J112" s="23">
         <v>0.83599999999999997</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K112" s="23">
         <v>0.81200000000000006</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I95" s="1">
+      <c r="L112" s="23"/>
+      <c r="M112" s="27"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="22"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="22">
         <v>108</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J113" s="23">
         <v>0.78300000000000003</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K113" s="23">
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I96" s="1">
+      <c r="L113" s="23"/>
+      <c r="M113" s="27"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="22">
         <v>127</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J114" s="23">
         <v>0.79200000000000004</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K114" s="23">
         <v>0.78200000000000003</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I97" s="1">
+      <c r="L114" s="23"/>
+      <c r="M114" s="27"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="22">
         <v>126</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J115" s="23">
         <v>0.80500000000000005</v>
       </c>
-      <c r="K97" s="1">
+      <c r="K115" s="23">
         <v>0.79300000000000004</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I98" s="1">
+      <c r="L115" s="23"/>
+      <c r="M115" s="27"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="22">
         <v>126</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J116" s="23">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K116" s="23">
         <v>0.79800000000000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I99" s="1">
+      <c r="L116" s="23"/>
+      <c r="M116" s="27"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="22">
         <v>123</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J117" s="23">
         <v>0.8</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K117" s="23">
         <v>0.78200000000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I100" s="1">
+      <c r="L117" s="23"/>
+      <c r="M117" s="27"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="22">
         <v>106</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J118" s="23">
         <v>0.79800000000000004</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K118" s="23">
         <v>0.81399999999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I101" s="1">
+      <c r="L118" s="23"/>
+      <c r="M118" s="27"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="22">
         <v>128</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J119" s="23">
         <v>0.79200000000000004</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K119" s="23">
         <v>0.78800000000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I102" s="1">
+      <c r="L119" s="23"/>
+      <c r="M119" s="27"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="22">
         <v>93</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J120" s="23">
         <v>0.77400000000000002</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K120" s="23">
         <v>0.76700000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="28" t="s">
+      <c r="L120" s="23"/>
+      <c r="M120" s="27"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="22">
+        <v>120</v>
+      </c>
+      <c r="J121" s="23">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K121" s="23">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="L121" s="23"/>
+      <c r="M121" s="27"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="22">
+        <v>117</v>
+      </c>
+      <c r="J122" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K122" s="23">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="L122" s="23"/>
+      <c r="M122" s="27"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="22"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="22">
+        <v>124</v>
+      </c>
+      <c r="J123" s="23">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K123" s="23">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="L123" s="23"/>
+      <c r="M123" s="27"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="22"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="22">
+        <v>120</v>
+      </c>
+      <c r="J124" s="23">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="K124" s="23">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L124" s="23"/>
+      <c r="M124" s="27"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="22"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="22">
+        <v>128</v>
+      </c>
+      <c r="J125" s="23">
+        <v>0.747</v>
+      </c>
+      <c r="K125" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="L125" s="23"/>
+      <c r="M125" s="27"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="22">
+        <v>114</v>
+      </c>
+      <c r="J126" s="23">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="K126" s="23">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="L126" s="23"/>
+      <c r="M126" s="27"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="22"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="22">
+        <v>119</v>
+      </c>
+      <c r="J127" s="23">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K127" s="23">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L127" s="23"/>
+      <c r="M127" s="27"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="22">
+        <v>121</v>
+      </c>
+      <c r="J128" s="23">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="K128" s="23">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L128" s="23"/>
+      <c r="M128" s="27"/>
+    </row>
+    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="28"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B130" s="20">
         <v>9</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C130" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D130" s="20">
         <v>32</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E130" s="20">
         <v>128</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F130" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G130" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H107" s="30">
+      <c r="H130" s="21">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I107" s="28">
+      <c r="I130" s="19">
         <v>95</v>
       </c>
-      <c r="J107" s="29">
+      <c r="J130" s="20">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K107" s="29">
+      <c r="K130" s="20">
         <v>0.79700000000000004</v>
       </c>
-      <c r="L107" s="31">
-        <f>SUM(K107:K126)/COUNT(K107:K126)</f>
+      <c r="L130" s="29">
+        <f>SUM(K130:K149)/COUNT(K130:K149)</f>
         <v>0.79739999999999989</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="32"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="32">
+      <c r="M130" s="26"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="22"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="22">
         <v>104</v>
       </c>
-      <c r="J108" s="33">
+      <c r="J131" s="23">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K108" s="33">
+      <c r="K131" s="23">
         <v>0.78</v>
       </c>
-      <c r="L108" s="34"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="32"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="32">
+      <c r="L131" s="30"/>
+      <c r="M131" s="27"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="22">
         <v>88</v>
       </c>
-      <c r="J109" s="33">
+      <c r="J132" s="23">
         <v>0.75600000000000001</v>
       </c>
-      <c r="K109" s="33">
+      <c r="K132" s="23">
         <v>0.81599999999999995</v>
       </c>
-      <c r="L109" s="34"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="32"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="32">
+      <c r="L132" s="30"/>
+      <c r="M132" s="27"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="22">
         <v>114</v>
       </c>
-      <c r="J110" s="33">
+      <c r="J133" s="23">
         <v>0.80500000000000005</v>
       </c>
-      <c r="K110" s="33">
+      <c r="K133" s="23">
         <v>0.82699999999999996</v>
       </c>
-      <c r="L110" s="34"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="32"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="32">
+      <c r="L133" s="30"/>
+      <c r="M133" s="27"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="22">
         <v>110</v>
       </c>
-      <c r="J111" s="33">
+      <c r="J134" s="23">
         <v>0.81799999999999995</v>
       </c>
-      <c r="K111" s="33">
+      <c r="K134" s="23">
         <v>0.79900000000000004</v>
       </c>
-      <c r="L111" s="34"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="32">
+      <c r="L134" s="30"/>
+      <c r="M134" s="27"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="22"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="22">
         <v>105</v>
       </c>
-      <c r="J112" s="33">
+      <c r="J135" s="23">
         <v>0.82699999999999996</v>
       </c>
-      <c r="K112" s="33">
+      <c r="K135" s="23">
         <v>0.77</v>
       </c>
-      <c r="L112" s="34"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="32"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="32">
+      <c r="L135" s="30"/>
+      <c r="M135" s="27"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="22">
         <v>80</v>
       </c>
-      <c r="J113" s="33">
+      <c r="J136" s="23">
         <v>0.83</v>
       </c>
-      <c r="K113" s="33">
+      <c r="K136" s="23">
         <v>0.83199999999999996</v>
       </c>
-      <c r="L113" s="34"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="32"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="32">
+      <c r="L136" s="30"/>
+      <c r="M136" s="27"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="22"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="22">
         <v>88</v>
       </c>
-      <c r="J114" s="33">
+      <c r="J137" s="23">
         <v>0.79400000000000004</v>
       </c>
-      <c r="K114" s="33">
+      <c r="K137" s="23">
         <v>0.78600000000000003</v>
       </c>
-      <c r="L114" s="34"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="32"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="32">
+      <c r="L137" s="30"/>
+      <c r="M137" s="27"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="22"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="22">
         <v>78</v>
       </c>
-      <c r="J115" s="33">
+      <c r="J138" s="23">
         <v>0.79</v>
       </c>
-      <c r="K115" s="33">
+      <c r="K138" s="23">
         <v>0.78300000000000003</v>
       </c>
-      <c r="L115" s="34"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="32"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="32">
+      <c r="L138" s="30"/>
+      <c r="M138" s="27"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="22">
         <v>116</v>
       </c>
-      <c r="J116" s="33">
+      <c r="J139" s="23">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K116" s="33">
+      <c r="K139" s="23">
         <v>0.81699999999999995</v>
       </c>
-      <c r="L116" s="34"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="32"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="32">
+      <c r="L139" s="30"/>
+      <c r="M139" s="27"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="22">
         <v>88</v>
       </c>
-      <c r="J117" s="33">
+      <c r="J140" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="K117" s="33">
+      <c r="K140" s="23">
         <v>0.82199999999999995</v>
       </c>
-      <c r="L117" s="34"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="32"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="32">
+      <c r="L140" s="30"/>
+      <c r="M140" s="27"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="22">
         <v>94</v>
       </c>
-      <c r="J118" s="33">
+      <c r="J141" s="23">
         <v>0.79</v>
       </c>
-      <c r="K118" s="33">
+      <c r="K141" s="23">
         <v>0.82799999999999996</v>
       </c>
-      <c r="L118" s="34"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="32">
+      <c r="L141" s="30"/>
+      <c r="M141" s="27"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="22">
         <v>98</v>
       </c>
-      <c r="J119" s="33">
+      <c r="J142" s="23">
         <v>0.81499999999999995</v>
       </c>
-      <c r="K119" s="33">
+      <c r="K142" s="23">
         <v>0.77400000000000002</v>
       </c>
-      <c r="L119" s="34"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="32"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="32">
+      <c r="L142" s="30"/>
+      <c r="M142" s="27"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="22">
         <v>86</v>
       </c>
-      <c r="J120" s="33">
+      <c r="J143" s="23">
         <v>0.84399999999999997</v>
       </c>
-      <c r="K120" s="33">
+      <c r="K143" s="23">
         <v>0.79200000000000004</v>
       </c>
-      <c r="L120" s="34"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="32"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="32">
+      <c r="L143" s="30"/>
+      <c r="M143" s="27"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="22">
         <v>103</v>
       </c>
-      <c r="J121" s="33">
+      <c r="J144" s="23">
         <v>0.81799999999999995</v>
       </c>
-      <c r="K121" s="33">
+      <c r="K144" s="23">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L121" s="34"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="32"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="32">
+      <c r="L144" s="30"/>
+      <c r="M144" s="27"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="22"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="22">
         <v>103</v>
       </c>
-      <c r="J122" s="33">
+      <c r="J145" s="23">
         <v>0.82199999999999995</v>
       </c>
-      <c r="K122" s="33">
+      <c r="K145" s="23">
         <v>0.83099999999999996</v>
       </c>
-      <c r="L122" s="34"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="32"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="32">
+      <c r="L145" s="30"/>
+      <c r="M145" s="27"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="22"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="22">
         <v>110</v>
       </c>
-      <c r="J123" s="33">
+      <c r="J146" s="23">
         <v>0.83</v>
       </c>
-      <c r="K123" s="33">
+      <c r="K146" s="23">
         <v>0.77100000000000002</v>
       </c>
-      <c r="L123" s="34"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="32"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="32">
+      <c r="L146" s="30"/>
+      <c r="M146" s="27"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="22"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="22">
         <v>102</v>
       </c>
-      <c r="J124" s="33">
+      <c r="J147" s="23">
         <v>0.82099999999999995</v>
       </c>
-      <c r="K124" s="33">
+      <c r="K147" s="23">
         <v>0.80400000000000005</v>
       </c>
-      <c r="L124" s="34"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="32"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="32">
+      <c r="L147" s="30"/>
+      <c r="M147" s="27"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="22"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="22">
         <v>125</v>
       </c>
-      <c r="J125" s="33">
+      <c r="J148" s="23">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K125" s="33">
+      <c r="K148" s="23">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L125" s="34"/>
-    </row>
-    <row r="126" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="36"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="35">
+      <c r="L148" s="30"/>
+      <c r="M148" s="27"/>
+    </row>
+    <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="24">
         <v>125</v>
       </c>
-      <c r="J126" s="36">
+      <c r="J149" s="25">
         <v>0.81499999999999995</v>
       </c>
-      <c r="K126" s="36">
+      <c r="K149" s="25">
         <v>0.78700000000000003</v>
       </c>
-      <c r="L126" s="37"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="L149" s="31"/>
+      <c r="M149" s="28"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B150" s="20">
         <v>11</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C150" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D150" s="20">
         <v>32</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E150" s="20">
         <v>128</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F150" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G150" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H150" s="26">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I150" s="19">
         <v>104</v>
       </c>
-      <c r="J127" s="1">
+      <c r="J150" s="20">
         <v>0.81699999999999995</v>
       </c>
-      <c r="K127" s="1">
+      <c r="K150" s="20">
         <v>0.82799999999999996</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I128" s="1">
+      <c r="L150" s="20">
+        <f>SUM(K150:K169)/COUNT(K150:K169)</f>
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="M150" s="26"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="22"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="22">
         <v>110</v>
       </c>
-      <c r="J128" s="1">
+      <c r="J151" s="23">
         <v>0.82199999999999995</v>
       </c>
-      <c r="K128" s="1">
+      <c r="K151" s="23">
         <v>0.80800000000000005</v>
       </c>
-    </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I129" s="1">
+      <c r="L151" s="23"/>
+      <c r="M151" s="27"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="22">
         <v>98</v>
       </c>
-      <c r="J129" s="1">
+      <c r="J152" s="23">
         <v>0.82499999999999996</v>
       </c>
-      <c r="K129" s="1">
+      <c r="K152" s="23">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I130" s="1">
+      <c r="L152" s="23"/>
+      <c r="M152" s="27"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="22"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="22">
         <v>92</v>
       </c>
-      <c r="J130" s="1">
+      <c r="J153" s="23">
         <v>0.82499999999999996</v>
       </c>
-      <c r="K130" s="1">
+      <c r="K153" s="23">
         <v>0.78700000000000003</v>
       </c>
-    </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I131" s="1">
+      <c r="L153" s="23"/>
+      <c r="M153" s="27"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="22">
         <v>102</v>
       </c>
-      <c r="J131" s="1">
+      <c r="J154" s="23">
         <v>0.83099999999999996</v>
       </c>
-      <c r="K131" s="1">
+      <c r="K154" s="23">
         <v>0.82199999999999995</v>
       </c>
-    </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I132" s="1">
+      <c r="L154" s="23"/>
+      <c r="M154" s="27"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="22">
         <v>116</v>
       </c>
-      <c r="J132" s="1">
+      <c r="J155" s="23">
         <v>0.83499999999999996</v>
       </c>
-      <c r="K132" s="1">
+      <c r="K155" s="23">
         <v>0.79100000000000004</v>
       </c>
-    </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I133" s="1">
+      <c r="L155" s="23"/>
+      <c r="M155" s="27"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="22">
         <v>101</v>
       </c>
-      <c r="J133" s="1">
+      <c r="J156" s="23">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K133" s="1">
+      <c r="K156" s="23">
         <v>0.85399999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I134" s="1">
+      <c r="L156" s="23"/>
+      <c r="M156" s="27"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="22"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="22">
         <v>126</v>
       </c>
-      <c r="J134" s="1">
+      <c r="J157" s="23">
         <v>0.80900000000000005</v>
       </c>
-      <c r="K134" s="1">
+      <c r="K157" s="23">
         <v>0.79100000000000004</v>
       </c>
-    </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I135" s="1">
+      <c r="L157" s="23"/>
+      <c r="M157" s="27"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="22">
         <v>113</v>
       </c>
-      <c r="J135" s="1">
+      <c r="J158" s="23">
         <v>0.81799999999999995</v>
       </c>
-      <c r="K135" s="1">
+      <c r="K158" s="23">
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I136" s="1">
+      <c r="L158" s="23"/>
+      <c r="M158" s="27"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="22">
         <v>115</v>
       </c>
-      <c r="J136" s="1">
+      <c r="J159" s="23">
         <v>0.81299999999999994</v>
       </c>
-      <c r="K136" s="1">
+      <c r="K159" s="23">
         <v>0.81200000000000006</v>
       </c>
-    </row>
-    <row r="137" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I137" s="1">
+      <c r="L159" s="23"/>
+      <c r="M159" s="27"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="22">
         <v>95</v>
       </c>
-      <c r="J137" s="1">
+      <c r="J160" s="23">
         <v>0.79300000000000004</v>
       </c>
-      <c r="K137" s="1">
+      <c r="K160" s="23">
         <v>0.85899999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I138" s="1">
+      <c r="L160" s="23"/>
+      <c r="M160" s="27"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="22"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="22">
         <v>116</v>
       </c>
-      <c r="J138" s="21">
+      <c r="J161" s="35">
         <v>0.80700000000000005</v>
       </c>
-      <c r="K138" s="1">
+      <c r="K161" s="23">
         <v>0.80100000000000005</v>
       </c>
-    </row>
-    <row r="139" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I139" s="1">
+      <c r="L161" s="23"/>
+      <c r="M161" s="27"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="22">
         <v>116</v>
       </c>
-      <c r="J139" s="1">
+      <c r="J162" s="23">
         <v>0.84899999999999998</v>
       </c>
-      <c r="K139" s="1">
+      <c r="K162" s="23">
         <v>0.81200000000000006</v>
       </c>
+      <c r="L162" s="23"/>
+      <c r="M162" s="27"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="22">
+        <v>100</v>
+      </c>
+      <c r="J163" s="23">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="K163" s="23">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="L163" s="23"/>
+      <c r="M163" s="27"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="22">
+        <v>104</v>
+      </c>
+      <c r="J164" s="23">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="K164" s="23">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="L164" s="23"/>
+      <c r="M164" s="27"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="22">
+        <v>122</v>
+      </c>
+      <c r="J165" s="23">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="K165" s="23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="L165" s="23"/>
+      <c r="M165" s="27"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="22">
+        <v>113</v>
+      </c>
+      <c r="J166" s="23">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K166" s="23">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="L166" s="23"/>
+      <c r="M166" s="27"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="22">
+        <v>121</v>
+      </c>
+      <c r="J167" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K167" s="23">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="L167" s="23"/>
+      <c r="M167" s="27"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="22">
+        <v>110</v>
+      </c>
+      <c r="J168" s="23">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K168" s="23">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L168" s="23"/>
+      <c r="M168" s="27"/>
+    </row>
+    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="24"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="24">
+        <v>120</v>
+      </c>
+      <c r="J169" s="25">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="K169" s="25">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="L169" s="25"/>
+      <c r="M169" s="28"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" s="44"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="44"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="44"/>
+      <c r="I170" s="44"/>
+      <c r="J170" s="44"/>
+      <c r="K170" s="44"/>
+      <c r="L170" s="44"/>
+      <c r="M170" s="46"/>
+    </row>
+    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="47"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48"/>
+      <c r="K171" s="48"/>
+      <c r="L171" s="48"/>
+      <c r="M171" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="L3:L9"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="L107:L126"/>
+    <mergeCell ref="A170:M171"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验效果.xlsx
+++ b/实验效果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Python\MSPLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8DB76F-1D87-4357-9327-EFF762513368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA9818-53CC-4B5B-A430-6440016717C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,16 +126,12 @@
     <t>min-lr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>debertaAES - RealCosloss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,17 +163,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,24 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S198" sqref="S198"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S114" sqref="S114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1155,10 @@
       <c r="K12" s="20">
         <v>0.8</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="20">
+        <f>SUM(K12:K31)/COUNT(K12:K31)</f>
+        <v>0.79325000000000001</v>
+      </c>
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1561,16 +1527,28 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="I30" s="22">
+        <v>125</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K30" s="23">
+        <v>0.80500000000000005</v>
+      </c>
       <c r="L30" s="23"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="I31" s="24">
+        <v>128</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0.78900000000000003</v>
+      </c>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
     </row>
@@ -1608,7 +1586,10 @@
       <c r="K32" s="20">
         <v>0.75</v>
       </c>
-      <c r="L32" s="20"/>
+      <c r="L32" s="20">
+        <f>SUM(K32:K51)/COUNT(K32:K51)</f>
+        <v>0.79675000000000007</v>
+      </c>
       <c r="M32" s="26"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1977,16 +1958,28 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
+      <c r="I50" s="22">
+        <v>128</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K50" s="23">
+        <v>0.81499999999999995</v>
+      </c>
       <c r="L50" s="23"/>
       <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
+      <c r="I51" s="24">
+        <v>127</v>
+      </c>
+      <c r="J51" s="25">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="K51" s="25">
+        <v>0.82</v>
+      </c>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
     </row>
@@ -2683,7 +2676,10 @@
       <c r="K110" s="20">
         <v>0.79300000000000004</v>
       </c>
-      <c r="L110" s="20"/>
+      <c r="L110" s="20">
+        <f>SUM(K110:K129)/COUNT(K110:K129)</f>
+        <v>0.79035</v>
+      </c>
       <c r="M110" s="26"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -3073,9 +3069,15 @@
       <c r="F129" s="25"/>
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="25"/>
+      <c r="I129" s="24">
+        <v>125</v>
+      </c>
+      <c r="J129" s="25">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="K129" s="25">
+        <v>0.79300000000000004</v>
+      </c>
       <c r="L129" s="25"/>
       <c r="M129" s="28"/>
     </row>
@@ -3957,44 +3959,11 @@
       <c r="L169" s="25"/>
       <c r="M169" s="28"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A170" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B170" s="44"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="44"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="44"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="44"/>
-      <c r="L170" s="44"/>
-      <c r="M170" s="46"/>
-    </row>
-    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="47"/>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="48"/>
-      <c r="G171" s="48"/>
-      <c r="H171" s="48"/>
-      <c r="I171" s="48"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
-      <c r="M171" s="49"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="L3:L9"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A170:M171"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验效果.xlsx
+++ b/实验效果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Python\MSPLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA9818-53CC-4B5B-A430-6440016717C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50C6CA-7B71-4492-81A9-F8A032AF3254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="4035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S114" sqref="S114"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -835,7 +835,7 @@
     <col min="1" max="5" width="8.625" style="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
@@ -2017,7 +2017,10 @@
       <c r="K52" s="20">
         <v>0.81799999999999995</v>
       </c>
-      <c r="L52" s="20"/>
+      <c r="L52" s="20">
+        <f>SUM(K52:K71)/COUNT(K52:K71)</f>
+        <v>0.7922499999999999</v>
+      </c>
       <c r="M52" s="26"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2365,9 +2368,15 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="27"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
+      <c r="I69" s="22">
+        <v>128</v>
+      </c>
+      <c r="J69" s="23">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="K69" s="23">
+        <v>0.79200000000000004</v>
+      </c>
       <c r="L69" s="23"/>
       <c r="M69" s="27"/>
     </row>
@@ -2380,9 +2389,15 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="27"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
+      <c r="I70" s="22">
+        <v>127</v>
+      </c>
+      <c r="J70" s="23">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K70" s="23">
+        <v>0.755</v>
+      </c>
       <c r="L70" s="23"/>
       <c r="M70" s="27"/>
     </row>
@@ -2395,9 +2410,15 @@
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
+      <c r="I71" s="24">
+        <v>128</v>
+      </c>
+      <c r="J71" s="25">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K71" s="25">
+        <v>0.81200000000000006</v>
+      </c>
       <c r="L71" s="25"/>
       <c r="M71" s="28"/>
     </row>
@@ -2497,6 +2518,10 @@
       <c r="K86" s="1">
         <v>0.79700000000000004</v>
       </c>
+      <c r="L86" s="1">
+        <f>SUM(K86:K105)/COUNT(K86:K105)</f>
+        <v>0.78439999999999988</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I87" s="1">
@@ -2608,7 +2633,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I97" s="1">
         <v>68</v>
       </c>
@@ -2619,7 +2644,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I98" s="1">
         <v>86</v>
       </c>
@@ -2630,225 +2655,134 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I99" s="1">
+        <v>30</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I100" s="1">
+        <v>106</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I101" s="1">
+        <v>58</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I102" s="1">
+        <v>98</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I103" s="1">
+        <v>128</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I104" s="1">
+        <v>23</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I105" s="1">
+        <v>86</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B112" s="1">
         <v>6</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="19" t="s">
+    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="20">
+      <c r="B118" s="20">
         <v>9</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C118" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D118" s="20">
         <v>32</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E118" s="20">
         <v>128</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F118" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G110" s="20" t="s">
+      <c r="G118" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="20">
+      <c r="H118" s="20">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I110" s="19">
+      <c r="I118" s="19">
         <v>115</v>
       </c>
-      <c r="J110" s="20">
+      <c r="J118" s="20">
         <v>0.80300000000000005</v>
       </c>
-      <c r="K110" s="20">
+      <c r="K118" s="20">
         <v>0.79300000000000004</v>
       </c>
-      <c r="L110" s="20">
-        <f>SUM(K110:K129)/COUNT(K110:K129)</f>
+      <c r="L118" s="20">
+        <f>SUM(K118:K137)/COUNT(K118:K137)</f>
         <v>0.79035</v>
       </c>
-      <c r="M110" s="26"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="22">
-        <v>123</v>
-      </c>
-      <c r="J111" s="23">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="K111" s="23">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="L111" s="23"/>
-      <c r="M111" s="27"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="22">
-        <v>123</v>
-      </c>
-      <c r="J112" s="23">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="K112" s="23">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="L112" s="23"/>
-      <c r="M112" s="27"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="22">
-        <v>108</v>
-      </c>
-      <c r="J113" s="23">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="K113" s="23">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="L113" s="23"/>
-      <c r="M113" s="27"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="22">
-        <v>127</v>
-      </c>
-      <c r="J114" s="23">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="K114" s="23">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="L114" s="23"/>
-      <c r="M114" s="27"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="22">
-        <v>126</v>
-      </c>
-      <c r="J115" s="23">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="K115" s="23">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="L115" s="23"/>
-      <c r="M115" s="27"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="22">
-        <v>126</v>
-      </c>
-      <c r="J116" s="23">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="K116" s="23">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L116" s="23"/>
-      <c r="M116" s="27"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="22"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="22">
-        <v>123</v>
-      </c>
-      <c r="J117" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="K117" s="23">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="L117" s="23"/>
-      <c r="M117" s="27"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="22">
-        <v>106</v>
-      </c>
-      <c r="J118" s="23">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="K118" s="23">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="L118" s="23"/>
-      <c r="M118" s="27"/>
+      <c r="M118" s="26"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="22"/>
@@ -2860,13 +2794,13 @@
       <c r="G119" s="23"/>
       <c r="H119" s="23"/>
       <c r="I119" s="22">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J119" s="23">
-        <v>0.79200000000000004</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="K119" s="23">
-        <v>0.78800000000000003</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="L119" s="23"/>
       <c r="M119" s="27"/>
@@ -2881,13 +2815,13 @@
       <c r="G120" s="23"/>
       <c r="H120" s="23"/>
       <c r="I120" s="22">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="J120" s="23">
-        <v>0.77400000000000002</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="K120" s="23">
-        <v>0.76700000000000002</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="L120" s="23"/>
       <c r="M120" s="27"/>
@@ -2902,13 +2836,13 @@
       <c r="G121" s="23"/>
       <c r="H121" s="23"/>
       <c r="I121" s="22">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J121" s="23">
-        <v>0.77100000000000002</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="K121" s="23">
-        <v>0.76900000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="L121" s="23"/>
       <c r="M121" s="27"/>
@@ -2923,13 +2857,13 @@
       <c r="G122" s="23"/>
       <c r="H122" s="23"/>
       <c r="I122" s="22">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J122" s="23">
-        <v>0.83099999999999996</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K122" s="23">
-        <v>0.82099999999999995</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="L122" s="23"/>
       <c r="M122" s="27"/>
@@ -2944,13 +2878,13 @@
       <c r="G123" s="23"/>
       <c r="H123" s="23"/>
       <c r="I123" s="22">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J123" s="23">
-        <v>0.82499999999999996</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="K123" s="23">
-        <v>0.83199999999999996</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="L123" s="23"/>
       <c r="M123" s="27"/>
@@ -2965,13 +2899,13 @@
       <c r="G124" s="23"/>
       <c r="H124" s="23"/>
       <c r="I124" s="22">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J124" s="23">
-        <v>0.80200000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="K124" s="23">
-        <v>0.78900000000000003</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="L124" s="23"/>
       <c r="M124" s="27"/>
@@ -2986,13 +2920,13 @@
       <c r="G125" s="23"/>
       <c r="H125" s="23"/>
       <c r="I125" s="22">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J125" s="23">
-        <v>0.747</v>
+        <v>0.8</v>
       </c>
       <c r="K125" s="23">
-        <v>0.74</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="L125" s="23"/>
       <c r="M125" s="27"/>
@@ -3007,13 +2941,13 @@
       <c r="G126" s="23"/>
       <c r="H126" s="23"/>
       <c r="I126" s="22">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J126" s="23">
-        <v>0.74299999999999999</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="K126" s="23">
-        <v>0.76800000000000002</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="L126" s="23"/>
       <c r="M126" s="27"/>
@@ -3028,13 +2962,13 @@
       <c r="G127" s="23"/>
       <c r="H127" s="23"/>
       <c r="I127" s="22">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J127" s="23">
-        <v>0.80400000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K127" s="23">
-        <v>0.81100000000000005</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="L127" s="23"/>
       <c r="M127" s="27"/>
@@ -3049,77 +2983,58 @@
       <c r="G128" s="23"/>
       <c r="H128" s="23"/>
       <c r="I128" s="22">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="J128" s="23">
-        <v>0.78700000000000003</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="K128" s="23">
-        <v>0.79500000000000004</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="L128" s="23"/>
       <c r="M128" s="27"/>
     </row>
-    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="24">
-        <v>125</v>
-      </c>
-      <c r="J129" s="25">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="K129" s="25">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="L129" s="25"/>
-      <c r="M129" s="28"/>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="22"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="22">
+        <v>120</v>
+      </c>
+      <c r="J129" s="23">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K129" s="23">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="L129" s="23"/>
+      <c r="M129" s="27"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" s="20">
-        <v>9</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="20">
-        <v>32</v>
-      </c>
-      <c r="E130" s="20">
-        <v>128</v>
-      </c>
-      <c r="F130" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H130" s="21">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I130" s="19">
-        <v>95</v>
-      </c>
-      <c r="J130" s="20">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="K130" s="20">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="L130" s="29">
-        <f>SUM(K130:K149)/COUNT(K130:K149)</f>
-        <v>0.79739999999999989</v>
-      </c>
-      <c r="M130" s="26"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="22">
+        <v>117</v>
+      </c>
+      <c r="J130" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K130" s="23">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="L130" s="23"/>
+      <c r="M130" s="27"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="22"/>
@@ -3131,15 +3046,15 @@
       <c r="G131" s="23"/>
       <c r="H131" s="23"/>
       <c r="I131" s="22">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="J131" s="23">
-        <v>0.78100000000000003</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="K131" s="23">
-        <v>0.78</v>
-      </c>
-      <c r="L131" s="30"/>
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="L131" s="23"/>
       <c r="M131" s="27"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -3152,15 +3067,15 @@
       <c r="G132" s="23"/>
       <c r="H132" s="23"/>
       <c r="I132" s="22">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J132" s="23">
-        <v>0.75600000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="K132" s="23">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="L132" s="30"/>
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L132" s="23"/>
       <c r="M132" s="27"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -3173,15 +3088,15 @@
       <c r="G133" s="23"/>
       <c r="H133" s="23"/>
       <c r="I133" s="22">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="J133" s="23">
-        <v>0.80500000000000005</v>
+        <v>0.747</v>
       </c>
       <c r="K133" s="23">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="L133" s="30"/>
+        <v>0.74</v>
+      </c>
+      <c r="L133" s="23"/>
       <c r="M133" s="27"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -3194,15 +3109,15 @@
       <c r="G134" s="23"/>
       <c r="H134" s="23"/>
       <c r="I134" s="22">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J134" s="23">
-        <v>0.81799999999999995</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="K134" s="23">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="L134" s="30"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="L134" s="23"/>
       <c r="M134" s="27"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -3215,15 +3130,15 @@
       <c r="G135" s="23"/>
       <c r="H135" s="23"/>
       <c r="I135" s="22">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="J135" s="23">
-        <v>0.82699999999999996</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="K135" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="L135" s="30"/>
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L135" s="23"/>
       <c r="M135" s="27"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -3236,58 +3151,77 @@
       <c r="G136" s="23"/>
       <c r="H136" s="23"/>
       <c r="I136" s="22">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="J136" s="23">
-        <v>0.83</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="K136" s="23">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="L136" s="30"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L136" s="23"/>
       <c r="M136" s="27"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="22"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="22">
-        <v>88</v>
-      </c>
-      <c r="J137" s="23">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="K137" s="23">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="L137" s="30"/>
-      <c r="M137" s="27"/>
+    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="24"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="24">
+        <v>125</v>
+      </c>
+      <c r="J137" s="25">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="K137" s="25">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L137" s="25"/>
+      <c r="M137" s="28"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="22"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="22">
-        <v>78</v>
-      </c>
-      <c r="J138" s="23">
-        <v>0.79</v>
-      </c>
-      <c r="K138" s="23">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="L138" s="30"/>
-      <c r="M138" s="27"/>
+      <c r="A138" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="20">
+        <v>9</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="20">
+        <v>32</v>
+      </c>
+      <c r="E138" s="20">
+        <v>128</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" s="21">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I138" s="19">
+        <v>95</v>
+      </c>
+      <c r="J138" s="20">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K138" s="20">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="L138" s="29">
+        <f>SUM(K138:K157)/COUNT(K138:K157)</f>
+        <v>0.79739999999999989</v>
+      </c>
+      <c r="M138" s="26"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="22"/>
@@ -3299,13 +3233,13 @@
       <c r="G139" s="23"/>
       <c r="H139" s="23"/>
       <c r="I139" s="22">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J139" s="23">
         <v>0.78100000000000003</v>
       </c>
       <c r="K139" s="23">
-        <v>0.81699999999999995</v>
+        <v>0.78</v>
       </c>
       <c r="L139" s="30"/>
       <c r="M139" s="27"/>
@@ -3323,10 +3257,10 @@
         <v>88</v>
       </c>
       <c r="J140" s="23">
-        <v>0.77600000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="K140" s="23">
-        <v>0.82199999999999995</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="L140" s="30"/>
       <c r="M140" s="27"/>
@@ -3341,13 +3275,13 @@
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="I141" s="22">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J141" s="23">
-        <v>0.79</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="K141" s="23">
-        <v>0.82799999999999996</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="L141" s="30"/>
       <c r="M141" s="27"/>
@@ -3362,13 +3296,13 @@
       <c r="G142" s="23"/>
       <c r="H142" s="23"/>
       <c r="I142" s="22">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J142" s="23">
-        <v>0.81499999999999995</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="K142" s="23">
-        <v>0.77400000000000002</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="L142" s="30"/>
       <c r="M142" s="27"/>
@@ -3383,13 +3317,13 @@
       <c r="G143" s="23"/>
       <c r="H143" s="23"/>
       <c r="I143" s="22">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="J143" s="23">
-        <v>0.84399999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="K143" s="23">
-        <v>0.79200000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="L143" s="30"/>
       <c r="M143" s="27"/>
@@ -3404,13 +3338,13 @@
       <c r="G144" s="23"/>
       <c r="H144" s="23"/>
       <c r="I144" s="22">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="J144" s="23">
-        <v>0.81799999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="K144" s="23">
-        <v>0.76600000000000001</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="L144" s="30"/>
       <c r="M144" s="27"/>
@@ -3425,13 +3359,13 @@
       <c r="G145" s="23"/>
       <c r="H145" s="23"/>
       <c r="I145" s="22">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="J145" s="23">
-        <v>0.82199999999999995</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="K145" s="23">
-        <v>0.83099999999999996</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="L145" s="30"/>
       <c r="M145" s="27"/>
@@ -3446,13 +3380,13 @@
       <c r="G146" s="23"/>
       <c r="H146" s="23"/>
       <c r="I146" s="22">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="J146" s="23">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="K146" s="23">
-        <v>0.77100000000000002</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="L146" s="30"/>
       <c r="M146" s="27"/>
@@ -3467,13 +3401,13 @@
       <c r="G147" s="23"/>
       <c r="H147" s="23"/>
       <c r="I147" s="22">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J147" s="23">
-        <v>0.82099999999999995</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="K147" s="23">
-        <v>0.80400000000000005</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="L147" s="30"/>
       <c r="M147" s="27"/>
@@ -3488,77 +3422,58 @@
       <c r="G148" s="23"/>
       <c r="H148" s="23"/>
       <c r="I148" s="22">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="J148" s="23">
-        <v>0.80600000000000005</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="K148" s="23">
-        <v>0.76600000000000001</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="L148" s="30"/>
       <c r="M148" s="27"/>
     </row>
-    <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="24">
-        <v>125</v>
-      </c>
-      <c r="J149" s="25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="22"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="22">
+        <v>94</v>
+      </c>
+      <c r="J149" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="K149" s="23">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="L149" s="30"/>
+      <c r="M149" s="27"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="22"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="22">
+        <v>98</v>
+      </c>
+      <c r="J150" s="23">
         <v>0.81499999999999995</v>
       </c>
-      <c r="K149" s="25">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="L149" s="31"/>
-      <c r="M149" s="28"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A150" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B150" s="20">
-        <v>11</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="20">
-        <v>32</v>
-      </c>
-      <c r="E150" s="20">
-        <v>128</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H150" s="26">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="I150" s="19">
-        <v>104</v>
-      </c>
-      <c r="J150" s="20">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="K150" s="20">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="L150" s="20">
-        <f>SUM(K150:K169)/COUNT(K150:K169)</f>
-        <v>0.81600000000000006</v>
-      </c>
-      <c r="M150" s="26"/>
+      <c r="K150" s="23">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="L150" s="30"/>
+      <c r="M150" s="27"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="22"/>
@@ -3568,17 +3483,17 @@
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
       <c r="G151" s="23"/>
-      <c r="H151" s="27"/>
+      <c r="H151" s="23"/>
       <c r="I151" s="22">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J151" s="23">
-        <v>0.82199999999999995</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="K151" s="23">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="L151" s="23"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L151" s="30"/>
       <c r="M151" s="27"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -3589,17 +3504,17 @@
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
-      <c r="H152" s="27"/>
+      <c r="H152" s="23"/>
       <c r="I152" s="22">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J152" s="23">
-        <v>0.82499999999999996</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="K152" s="23">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="L152" s="23"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L152" s="30"/>
       <c r="M152" s="27"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -3610,17 +3525,17 @@
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="23"/>
-      <c r="H153" s="27"/>
+      <c r="H153" s="23"/>
       <c r="I153" s="22">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J153" s="23">
-        <v>0.82499999999999996</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="K153" s="23">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="L153" s="23"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L153" s="30"/>
       <c r="M153" s="27"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -3631,17 +3546,17 @@
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
       <c r="G154" s="23"/>
-      <c r="H154" s="27"/>
+      <c r="H154" s="23"/>
       <c r="I154" s="22">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J154" s="23">
-        <v>0.83099999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="K154" s="23">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="L154" s="23"/>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L154" s="30"/>
       <c r="M154" s="27"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -3652,17 +3567,17 @@
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
       <c r="G155" s="23"/>
-      <c r="H155" s="27"/>
+      <c r="H155" s="23"/>
       <c r="I155" s="22">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J155" s="23">
-        <v>0.83499999999999996</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="K155" s="23">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="L155" s="23"/>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L155" s="30"/>
       <c r="M155" s="27"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -3673,60 +3588,79 @@
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
       <c r="G156" s="23"/>
-      <c r="H156" s="27"/>
+      <c r="H156" s="23"/>
       <c r="I156" s="22">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J156" s="23">
-        <v>0.80800000000000005</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="K156" s="23">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="L156" s="23"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L156" s="30"/>
       <c r="M156" s="27"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="22">
-        <v>126</v>
-      </c>
-      <c r="J157" s="23">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="K157" s="23">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="L157" s="23"/>
-      <c r="M157" s="27"/>
+    <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="24">
+        <v>125</v>
+      </c>
+      <c r="J157" s="25">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K157" s="25">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L157" s="31"/>
+      <c r="M157" s="28"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="22">
-        <v>113</v>
-      </c>
-      <c r="J158" s="23">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="K158" s="23">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="L158" s="23"/>
-      <c r="M158" s="27"/>
+      <c r="A158" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="20">
+        <v>11</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="20">
+        <v>32</v>
+      </c>
+      <c r="E158" s="20">
+        <v>128</v>
+      </c>
+      <c r="F158" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="26">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I158" s="19">
+        <v>104</v>
+      </c>
+      <c r="J158" s="20">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="K158" s="20">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="L158" s="20">
+        <f>SUM(K158:K177)/COUNT(K158:K177)</f>
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="M158" s="26"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="22"/>
@@ -3738,13 +3672,13 @@
       <c r="G159" s="23"/>
       <c r="H159" s="27"/>
       <c r="I159" s="22">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J159" s="23">
-        <v>0.81299999999999994</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="K159" s="23">
-        <v>0.81200000000000006</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="L159" s="23"/>
       <c r="M159" s="27"/>
@@ -3759,13 +3693,13 @@
       <c r="G160" s="23"/>
       <c r="H160" s="27"/>
       <c r="I160" s="22">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J160" s="23">
-        <v>0.79300000000000004</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="K160" s="23">
-        <v>0.85899999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="L160" s="23"/>
       <c r="M160" s="27"/>
@@ -3780,13 +3714,13 @@
       <c r="G161" s="23"/>
       <c r="H161" s="27"/>
       <c r="I161" s="22">
-        <v>116</v>
-      </c>
-      <c r="J161" s="35">
-        <v>0.80700000000000005</v>
+        <v>92</v>
+      </c>
+      <c r="J161" s="23">
+        <v>0.82499999999999996</v>
       </c>
       <c r="K161" s="23">
-        <v>0.80100000000000005</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="L161" s="23"/>
       <c r="M161" s="27"/>
@@ -3801,13 +3735,13 @@
       <c r="G162" s="23"/>
       <c r="H162" s="27"/>
       <c r="I162" s="22">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J162" s="23">
-        <v>0.84899999999999998</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="K162" s="23">
-        <v>0.81200000000000006</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="L162" s="23"/>
       <c r="M162" s="27"/>
@@ -3822,13 +3756,13 @@
       <c r="G163" s="23"/>
       <c r="H163" s="27"/>
       <c r="I163" s="22">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="J163" s="23">
-        <v>0.85399999999999998</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="K163" s="23">
-        <v>0.82199999999999995</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="L163" s="23"/>
       <c r="M163" s="27"/>
@@ -3843,13 +3777,13 @@
       <c r="G164" s="23"/>
       <c r="H164" s="27"/>
       <c r="I164" s="22">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J164" s="23">
-        <v>0.84599999999999997</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="K164" s="23">
-        <v>0.79100000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="L164" s="23"/>
       <c r="M164" s="27"/>
@@ -3864,13 +3798,13 @@
       <c r="G165" s="23"/>
       <c r="H165" s="27"/>
       <c r="I165" s="22">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J165" s="23">
-        <v>0.85099999999999998</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="K165" s="23">
-        <v>0.78200000000000003</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="L165" s="23"/>
       <c r="M165" s="27"/>
@@ -3888,10 +3822,10 @@
         <v>113</v>
       </c>
       <c r="J166" s="23">
-        <v>0.78600000000000003</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="K166" s="23">
-        <v>0.81599999999999995</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="L166" s="23"/>
       <c r="M166" s="27"/>
@@ -3906,13 +3840,13 @@
       <c r="G167" s="23"/>
       <c r="H167" s="27"/>
       <c r="I167" s="22">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J167" s="23">
-        <v>0.78800000000000003</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="K167" s="23">
-        <v>0.80300000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="L167" s="23"/>
       <c r="M167" s="27"/>
@@ -3927,37 +3861,205 @@
       <c r="G168" s="23"/>
       <c r="H168" s="27"/>
       <c r="I168" s="22">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J168" s="23">
-        <v>0.78100000000000003</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="K168" s="23">
-        <v>0.81100000000000005</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="L168" s="23"/>
       <c r="M168" s="27"/>
     </row>
-    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="24"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="24">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="22">
+        <v>116</v>
+      </c>
+      <c r="J169" s="35">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K169" s="23">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="L169" s="23"/>
+      <c r="M169" s="27"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="22">
+        <v>116</v>
+      </c>
+      <c r="J170" s="23">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="K170" s="23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L170" s="23"/>
+      <c r="M170" s="27"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="22">
+        <v>100</v>
+      </c>
+      <c r="J171" s="23">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="K171" s="23">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="L171" s="23"/>
+      <c r="M171" s="27"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="22">
+        <v>104</v>
+      </c>
+      <c r="J172" s="23">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="K172" s="23">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="L172" s="23"/>
+      <c r="M172" s="27"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="22">
+        <v>122</v>
+      </c>
+      <c r="J173" s="23">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="K173" s="23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="L173" s="23"/>
+      <c r="M173" s="27"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="22">
+        <v>113</v>
+      </c>
+      <c r="J174" s="23">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K174" s="23">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="L174" s="23"/>
+      <c r="M174" s="27"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="22">
+        <v>121</v>
+      </c>
+      <c r="J175" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K175" s="23">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="L175" s="23"/>
+      <c r="M175" s="27"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="22">
+        <v>110</v>
+      </c>
+      <c r="J176" s="23">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K176" s="23">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L176" s="23"/>
+      <c r="M176" s="27"/>
+    </row>
+    <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="24"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="24">
         <v>120</v>
       </c>
-      <c r="J169" s="25">
+      <c r="J177" s="25">
         <v>0.78700000000000003</v>
       </c>
-      <c r="K169" s="25">
+      <c r="K177" s="25">
         <v>0.84799999999999998</v>
       </c>
-      <c r="L169" s="25"/>
-      <c r="M169" s="28"/>
+      <c r="L177" s="25"/>
+      <c r="M177" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
